--- a/DeepInDungeon/Assets/Data/PlayerDeck.xlsx
+++ b/DeepInDungeon/Assets/Data/PlayerDeck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/unity/CardGame/DeepInDungeon/Assets/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/unity/CardGame/DeepInDungeonGit/DeepInDungeon/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1312CB3D-3937-CF45-9B9C-4376490AD725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5F1F0C-8B38-2A4C-B22B-84983F7DCD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="6100" windowWidth="27860" windowHeight="17060" xr2:uid="{6056B729-497C-7645-8CD1-B2F663CE8F38}"/>
+    <workbookView xWindow="15180" yWindow="15000" windowWidth="27060" windowHeight="16060" xr2:uid="{8B6D86B8-EF7D-6948-A45E-FEADF89C718B}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>deck</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Defend</t>
   </si>
 </sst>
 </file>
@@ -411,74 +417,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049968B6-63A3-A341-8861-6A666250A3DA}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE480191-CDC9-F244-B8C9-7B1C2DB5DC29}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A5" si="0">A2</f>
-        <v>deck</v>
-      </c>
-      <c r="B3">
-        <f>B2+1</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>deck</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B5" si="1">B3+1</f>
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>deck</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
